--- a/preset.XLSX
+++ b/preset.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="13440" windowHeight="10290" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="custom" sheetId="1" state="visible" r:id="rId1"/>
@@ -400,8 +400,8 @@
   </sheetPr>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>3.3.0</t>
+          <t>3.3.2</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,39 +949,35 @@
           <t>set_select_shoe</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="B29" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" t="n">
-        <v>17</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -3139,8 +3135,8 @@
     <col width="4.75" customWidth="1" style="5" min="2" max="2"/>
     <col width="4.25" customWidth="1" style="4" min="3" max="3"/>
     <col width="4.25" customWidth="1" style="3" min="4" max="12"/>
-    <col width="12.625" customWidth="1" style="5" min="13" max="43"/>
-    <col width="12.625" customWidth="1" style="5" min="44" max="16384"/>
+    <col width="12.625" customWidth="1" style="5" min="13" max="44"/>
+    <col width="12.625" customWidth="1" style="5" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
